--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-431224.6168167688</v>
+        <v>-433923.6689106764</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>152.0747039460365</v>
+        <v>153.807238032413</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -795,16 +795,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>77.7578825286205</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>117.6312712565188</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>161.5715952164746</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>32.35016756540421</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>412.1217610028605</v>
       </c>
       <c r="H5" t="n">
-        <v>306.8976264094352</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>87.8412925809406</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>125.3918869341351</v>
+        <v>136.5335673127886</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0911747868545</v>
+        <v>101.9685344408324</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>91.99501060822961</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>42.11903538726727</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841044</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224378</v>
+        <v>30.79801895224388</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>140.0697787646034</v>
+        <v>140.0697787646035</v>
       </c>
       <c r="T6" t="n">
         <v>193.3045852332498</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>17.11683172890892</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5641028040799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>149.5409427785072</v>
       </c>
       <c r="I7" t="n">
-        <v>112.5404054555728</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502781</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>237.6019363170234</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>14.41370178612662</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>140.7607186789922</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>24.48701286814722</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>55.86232654297725</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>90.87307469723815</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>237.9481278561017</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184572</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
-        <v>250.959002459687</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530797</v>
+        <v>10.48847705530794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927377</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>142.2730959306189</v>
       </c>
       <c r="Y13" t="n">
-        <v>25.7531045493279</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>140.7058473537596</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1895,10 +1895,10 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>20.92847288552876</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>22.65115569188868</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695696</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2327,13 +2327,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428179</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.14614278817813</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428175</v>
+        <v>83.06560892428067</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012173</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,10 +2953,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428134</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691055</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3029,7 +3029,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428088</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>214.0647808588576</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703262</v>
+        <v>108.2950343703269</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428173</v>
+        <v>83.06560892428126</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206843</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179546</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712589</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323101</v>
+        <v>549.202463503662</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323101</v>
+        <v>549.202463503662</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323101</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323101</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="F2" t="n">
-        <v>217.6519665656066</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G2" t="n">
-        <v>204.4218319897904</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
         <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985584</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487949</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487949</v>
+        <v>738.6222485201467</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323101</v>
+        <v>549.202463503662</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>263.3969659067637</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="C3" t="n">
-        <v>263.3969659067637</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="D3" t="n">
-        <v>263.3969659067637</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="E3" t="n">
-        <v>263.3969659067637</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
         <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843279</v>
+        <v>722.9192922843275</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389242</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="T3" t="n">
-        <v>571.6362168389242</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="U3" t="n">
-        <v>571.6362168389242</v>
+        <v>571.6362168389238</v>
       </c>
       <c r="V3" t="n">
-        <v>571.6362168389242</v>
+        <v>493.0929011534486</v>
       </c>
       <c r="W3" t="n">
-        <v>571.6362168389242</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="X3" t="n">
-        <v>452.8167509232485</v>
+        <v>303.6731161369638</v>
       </c>
       <c r="Y3" t="n">
-        <v>263.3969659067637</v>
+        <v>303.6731161369638</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.67898390805732</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C4" t="n">
-        <v>47.67898390805732</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="D4" t="n">
-        <v>47.67898390805732</v>
+        <v>599.9857092529437</v>
       </c>
       <c r="E4" t="n">
-        <v>47.67898390805732</v>
+        <v>452.0726156705506</v>
       </c>
       <c r="F4" t="n">
-        <v>47.67898390805732</v>
+        <v>305.1826681726402</v>
       </c>
       <c r="G4" t="n">
-        <v>47.67898390805732</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="H4" t="n">
-        <v>47.67898390805732</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745585</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692152</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>650.903349563872</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652798</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>615.9383389575117</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>615.9383389575117</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T4" t="n">
-        <v>426.5185539410269</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U4" t="n">
-        <v>426.5185539410269</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V4" t="n">
-        <v>426.5185539410269</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W4" t="n">
-        <v>426.5185539410269</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X4" t="n">
-        <v>237.0987689245421</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.67898390805732</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1498.022085941164</v>
+        <v>953.5652503652195</v>
       </c>
       <c r="C5" t="n">
-        <v>1129.059569000753</v>
+        <v>953.5652503652195</v>
       </c>
       <c r="D5" t="n">
-        <v>770.7938703940021</v>
+        <v>953.5652503652195</v>
       </c>
       <c r="E5" t="n">
-        <v>770.7938703940021</v>
+        <v>953.5652503652195</v>
       </c>
       <c r="F5" t="n">
-        <v>763.8483696447986</v>
+        <v>542.579345575612</v>
       </c>
       <c r="G5" t="n">
-        <v>347.5637625712021</v>
+        <v>126.2947385020155</v>
       </c>
       <c r="H5" t="n">
-        <v>37.56616013742914</v>
+        <v>126.2947385020155</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742902</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620873</v>
+        <v>125.6123058620867</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405709</v>
+        <v>308.3091729405696</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714453</v>
+        <v>571.8625535714432</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672687</v>
+        <v>896.7859082672657</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.580670917812</v>
+        <v>1231.580670917808</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.38261037952</v>
+        <v>1534.382610379515</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.31605928067</v>
+        <v>1758.316059280664</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871457</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871457</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="S5" t="n">
-        <v>1751.649535220815</v>
+        <v>1740.395312616109</v>
       </c>
       <c r="T5" t="n">
-        <v>1751.649535220815</v>
+        <v>1740.395312616109</v>
       </c>
       <c r="U5" t="n">
-        <v>1498.022085941164</v>
+        <v>1637.396792978904</v>
       </c>
       <c r="V5" t="n">
-        <v>1498.022085941164</v>
+        <v>1306.333905635334</v>
       </c>
       <c r="W5" t="n">
-        <v>1498.022085941164</v>
+        <v>953.5652503652195</v>
       </c>
       <c r="X5" t="n">
-        <v>1498.022085941164</v>
+        <v>953.5652503652195</v>
       </c>
       <c r="Y5" t="n">
-        <v>1498.022085941164</v>
+        <v>953.5652503652195</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>662.6918024923232</v>
+        <v>616.3059459696483</v>
       </c>
       <c r="C6" t="n">
-        <v>662.6918024923232</v>
+        <v>523.3816928300224</v>
       </c>
       <c r="D6" t="n">
-        <v>513.7573928310719</v>
+        <v>374.4472831687712</v>
       </c>
       <c r="E6" t="n">
-        <v>354.5199378256164</v>
+        <v>215.2098281633156</v>
       </c>
       <c r="F6" t="n">
-        <v>207.9853798525014</v>
+        <v>68.67527019020062</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4408996633425</v>
+        <v>68.67527019020062</v>
       </c>
       <c r="H6" t="n">
-        <v>68.67527019020064</v>
+        <v>68.67527019020062</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742902</v>
       </c>
       <c r="J6" t="n">
-        <v>126.9719058813801</v>
+        <v>71.18799439755972</v>
       </c>
       <c r="K6" t="n">
-        <v>524.4123852062916</v>
+        <v>254.1071828887976</v>
       </c>
       <c r="L6" t="n">
-        <v>753.0926112965333</v>
+        <v>482.7874089790387</v>
       </c>
       <c r="M6" t="n">
-        <v>1039.308517166674</v>
+        <v>769.0033148491791</v>
       </c>
       <c r="N6" t="n">
-        <v>1347.508351318937</v>
+        <v>1077.203149001441</v>
       </c>
       <c r="O6" t="n">
-        <v>1607.231192644601</v>
+        <v>1336.925990327105</v>
       </c>
       <c r="P6" t="n">
-        <v>1796.348604135331</v>
+        <v>1801.807222027789</v>
       </c>
       <c r="Q6" t="n">
-        <v>1872.849388978994</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871457</v>
+        <v>1878.308006871451</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856706</v>
+        <v>1736.8233818567</v>
       </c>
       <c r="T6" t="n">
-        <v>1541.566225055444</v>
+        <v>1541.566225055437</v>
       </c>
       <c r="U6" t="n">
-        <v>1313.455709694553</v>
+        <v>1313.455709694546</v>
       </c>
       <c r="V6" t="n">
-        <v>1078.30360146281</v>
+        <v>1078.303601462804</v>
       </c>
       <c r="W6" t="n">
-        <v>1078.30360146281</v>
+        <v>824.0662447346022</v>
       </c>
       <c r="X6" t="n">
-        <v>870.452101257277</v>
+        <v>824.0662447346022</v>
       </c>
       <c r="Y6" t="n">
-        <v>662.6918024923232</v>
+        <v>616.3059459696483</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>483.6695823712603</v>
+        <v>654.5603873276094</v>
       </c>
       <c r="C7" t="n">
-        <v>483.6695823712603</v>
+        <v>485.6242043997025</v>
       </c>
       <c r="D7" t="n">
-        <v>483.6695823712603</v>
+        <v>335.5075649873668</v>
       </c>
       <c r="E7" t="n">
-        <v>466.3798533521604</v>
+        <v>335.5075649873668</v>
       </c>
       <c r="F7" t="n">
-        <v>319.48990585425</v>
+        <v>188.6176174894565</v>
       </c>
       <c r="G7" t="n">
-        <v>151.2433373652804</v>
+        <v>188.6176174894565</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2433373652804</v>
+        <v>37.56616013742902</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742914</v>
+        <v>37.56616013742902</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256556</v>
+        <v>45.01194249256528</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696028</v>
+        <v>187.0844868696022</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101289</v>
+        <v>424.414864410128</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467497</v>
+        <v>685.0355944467483</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609266</v>
+        <v>944.8939624609249</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103174</v>
+        <v>1168.898929103172</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.053193890531</v>
+        <v>1337.053193890529</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.03941055281</v>
+        <v>1370.039410552808</v>
       </c>
       <c r="R7" t="n">
-        <v>1255.760791512125</v>
+        <v>1370.039410552808</v>
       </c>
       <c r="S7" t="n">
-        <v>1255.760791512125</v>
+        <v>1370.039410552808</v>
       </c>
       <c r="T7" t="n">
-        <v>1255.760791512125</v>
+        <v>1370.039410552808</v>
       </c>
       <c r="U7" t="n">
-        <v>1255.760791512125</v>
+        <v>1130.037454677027</v>
       </c>
       <c r="V7" t="n">
-        <v>1001.076303306238</v>
+        <v>875.3529664711396</v>
       </c>
       <c r="W7" t="n">
-        <v>711.6591332692776</v>
+        <v>875.3529664711396</v>
       </c>
       <c r="X7" t="n">
-        <v>483.6695823712603</v>
+        <v>875.3529664711396</v>
       </c>
       <c r="Y7" t="n">
-        <v>483.6695823712603</v>
+        <v>654.5603873276094</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.900948886693</v>
+        <v>990.2034880760491</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.938431946282</v>
+        <v>990.2034880760491</v>
       </c>
       <c r="D8" t="n">
-        <v>933.6727333395313</v>
+        <v>990.2034880760491</v>
       </c>
       <c r="E8" t="n">
-        <v>547.884480741287</v>
+        <v>604.4152354778048</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>193.4293306881972</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4817,37 +4817,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926627</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926627</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926627</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950815</v>
+        <v>990.2034880760491</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812058006</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625333</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1227.201367341572</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1614.486495938517</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460313</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.02341329261</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.4948683002148</v>
+        <v>771.7836012132566</v>
       </c>
       <c r="C10" t="n">
-        <v>775.4948683002148</v>
+        <v>602.8474182853497</v>
       </c>
       <c r="D10" t="n">
-        <v>625.378228887879</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="E10" t="n">
-        <v>477.4651353054859</v>
+        <v>452.7307788730139</v>
       </c>
       <c r="F10" t="n">
-        <v>330.5751878075755</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
         <v>305.8408313751036</v>
@@ -4957,55 +4957,55 @@
         <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T10" t="n">
-        <v>1439.817372234359</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1439.817372234359</v>
+        <v>1254.457640317161</v>
       </c>
       <c r="V10" t="n">
-        <v>1185.132884028472</v>
+        <v>999.7731521112739</v>
       </c>
       <c r="W10" t="n">
-        <v>1185.132884028472</v>
+        <v>999.7731521112739</v>
       </c>
       <c r="X10" t="n">
-        <v>957.1433331304545</v>
+        <v>771.7836012132566</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.1433331304545</v>
+        <v>771.7836012132566</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2162.818639263941</v>
+        <v>1738.984271012042</v>
       </c>
       <c r="C11" t="n">
-        <v>1793.856122323529</v>
+        <v>1647.193286469377</v>
       </c>
       <c r="D11" t="n">
-        <v>1435.590423716779</v>
+        <v>1288.927587862627</v>
       </c>
       <c r="E11" t="n">
-        <v>1049.802171118535</v>
+        <v>903.1393352643827</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194421</v>
+        <v>492.1534304747752</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605877</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309163</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592063</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706881</v>
+        <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656944</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625327</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087828</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484039</v>
+        <v>2455.600890484042</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535292</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.12796747999</v>
+        <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464056</v>
+        <v>3789.749829464059</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796031</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796031</v>
+        <v>3776.999350345376</v>
       </c>
       <c r="T11" t="n">
-        <v>3876.883295796031</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3623.389353917559</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="V11" t="n">
-        <v>3292.326466573988</v>
+        <v>3241.95785658317</v>
       </c>
       <c r="W11" t="n">
-        <v>2939.557811303875</v>
+        <v>2889.189201313055</v>
       </c>
       <c r="X11" t="n">
-        <v>2939.557811303875</v>
+        <v>2515.723443051976</v>
       </c>
       <c r="Y11" t="n">
-        <v>2549.418479328063</v>
+        <v>2125.584111076164</v>
       </c>
     </row>
     <row r="12">
@@ -5103,31 +5103,31 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592063</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J12" t="n">
-        <v>193.841091987041</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046649</v>
+        <v>84.53144813504514</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626159</v>
+        <v>503.2284887929965</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019144</v>
+        <v>1011.185054749524</v>
       </c>
       <c r="N12" t="n">
         <v>1546.994364450734</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1003.287366026812</v>
+        <v>758.0183755659252</v>
       </c>
       <c r="C13" t="n">
-        <v>834.3511830989049</v>
+        <v>758.0183755659252</v>
       </c>
       <c r="D13" t="n">
-        <v>684.2345436865692</v>
+        <v>607.9017361535895</v>
       </c>
       <c r="E13" t="n">
-        <v>536.3214501041761</v>
+        <v>459.9886425711964</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062657</v>
+        <v>313.098695073286</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>313.098695073286</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592063</v>
+        <v>168.7028415717528</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592063</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758646</v>
+        <v>136.8552218758647</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648141</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344803</v>
+        <v>710.5788654344807</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
       </c>
       <c r="N13" t="n">
-        <v>1458.341306336946</v>
+        <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742806</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276102</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710543</v>
+        <v>2137.362968742808</v>
       </c>
       <c r="U13" t="n">
-        <v>1728.355788710543</v>
+        <v>1848.271275692259</v>
       </c>
       <c r="V13" t="n">
-        <v>1728.355788710543</v>
+        <v>1593.586787486372</v>
       </c>
       <c r="W13" t="n">
-        <v>1438.938618673582</v>
+        <v>1304.169617449411</v>
       </c>
       <c r="X13" t="n">
-        <v>1210.949067775565</v>
+        <v>1160.459419539695</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.935830857052</v>
+        <v>939.666840396165</v>
       </c>
     </row>
     <row r="14">
@@ -5255,67 +5255,67 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.7084350851676</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C16" t="n">
-        <v>527.7722521572607</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D16" t="n">
-        <v>377.6556127449249</v>
+        <v>733.776543148324</v>
       </c>
       <c r="E16" t="n">
-        <v>377.6556127449249</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F16" t="n">
-        <v>377.6556127449249</v>
+        <v>438.9735020680207</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>271.7774027829007</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>130.065571625099</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
         <v>2035.089393279803</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W16" t="n">
-        <v>1327.139029956954</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X16" t="n">
-        <v>1099.149479058937</v>
+        <v>1455.270409462337</v>
       </c>
       <c r="Y16" t="n">
-        <v>878.3568999154073</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,7 +5501,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,31 +5510,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5555,10 +5555,10 @@
         <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.899304487669</v>
+        <v>558.0193492433375</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597622</v>
+        <v>558.0193492433375</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474265</v>
+        <v>407.9027098310016</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474265</v>
+        <v>407.9027098310016</v>
       </c>
       <c r="F19" t="n">
-        <v>114.9565346495161</v>
+        <v>261.0127623330914</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797189</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5683,7 +5683,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
         <v>2035.089393279803</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2424.083128335929</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2241.228293990833</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2021.626829013774</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1732.551602357972</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1477.867114152085</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1188.449944115125</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614389</v>
+        <v>960.4603932171074</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179088</v>
+        <v>739.6678140735772</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279803</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,52 +5975,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400713</v>
+        <v>571.660776418801</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121644</v>
+        <v>402.7245934908941</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270444</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038342</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511393</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189239</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138412</v>
+        <v>974.1018203925712</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703111</v>
+        <v>753.3092412490407</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694708</v>
@@ -6248,25 +6248,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121638</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121637</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121636</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270433</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
@@ -6400,13 +6400,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
         <v>2197.062545487567</v>
@@ -6424,10 +6424,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="29">
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,31 +6479,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400708</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121639</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121639</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121639</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121639</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270439</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138406</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703105</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="32">
@@ -6689,58 +6689,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400704</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121635</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121635</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121635</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121635</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270435</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138403</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703102</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708874</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429805</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429805</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429805</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429805</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,49 +7096,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642675</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011271</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168628</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362702</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7351,16 +7351,16 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
         <v>1688.385853854706</v>
@@ -7369,13 +7369,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138414</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,37 +7421,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,28 +7482,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,19 +7585,19 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
         <v>1688.385853854706</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,64 +7634,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,25 +7719,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188002</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908933</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908933</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908933</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908934</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166296</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290587</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925701</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490399</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711117</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
-        <v>98.86065188594068</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496441</v>
+        <v>15.76852197496476</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>56.34738533719185</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>47.77706445331273</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>278.5493133433884</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>40.00791436438845</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>255.8421700460952</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>274.3998170737694</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>168.9279178856097</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615221</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.959002459687</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992738</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905247</v>
+        <v>79.81330679905243</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>83.43655945841829</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.8315488027669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>24.81829093850924</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>45.37941682720962</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>144.5956654067401</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>43.72409101823675</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219421</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219436</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194214</v>
+        <v>57.22910392194325</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,10 +24841,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194255</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>145.6085800303777</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194176</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194301</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>72.11969353038654</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194264</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194215</v>
+        <v>57.22910392194259</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194214</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1142814.062831267</v>
+        <v>1142814.062831268</v>
       </c>
     </row>
     <row r="7">
@@ -26314,28 +26314,28 @@
         <v>287364.619452499</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="D2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
         <v>256406.2354960385</v>
       </c>
       <c r="F2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="G2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="H2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="I2" t="n">
+        <v>282501.3098915022</v>
+      </c>
+      <c r="J2" t="n">
         <v>282501.3098915023</v>
-      </c>
-      <c r="G2" t="n">
-        <v>282501.3098915024</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282501.3098915023</v>
-      </c>
-      <c r="I2" t="n">
-        <v>282501.3098915021</v>
-      </c>
-      <c r="J2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="K2" t="n">
         <v>282501.3098915021</v>
@@ -26344,13 +26344,13 @@
         <v>282501.3098915022</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="P2" t="n">
         <v>282501.3098915021</v>
@@ -26366,16 +26366,16 @@
         <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.85789129</v>
+        <v>312214.8578912884</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972651</v>
+        <v>175413.4991972664</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545759</v>
+        <v>313577.1573545769</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704302</v>
+        <v>189308.2687704297</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030185</v>
+        <v>72591.00846030153</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925502</v>
+        <v>43280.5427992553</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.4037127304</v>
+        <v>81897.40371273061</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202394</v>
+        <v>49839.57413202381</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307131</v>
+        <v>277470.8484307132</v>
       </c>
       <c r="C4" t="n">
-        <v>194111.7371403467</v>
+        <v>194111.7371403472</v>
       </c>
       <c r="D4" t="n">
-        <v>145155.2306979382</v>
+        <v>145155.2306979383</v>
       </c>
       <c r="E4" t="n">
         <v>13501.3895521962</v>
@@ -26430,34 +26430,34 @@
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184273</v>
+        <v>13606.80811184267</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.8081118427</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="K4" t="n">
-        <v>13606.80811184276</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184276</v>
-      </c>
       <c r="N4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184273</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184266</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638309</v>
+        <v>79427.52208638296</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738557</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-638448.931910673</v>
       </c>
       <c r="C6" t="n">
-        <v>-298389.4976655206</v>
+        <v>-298389.4976655194</v>
       </c>
       <c r="D6" t="n">
-        <v>-126141.8828825489</v>
+        <v>-126141.8828825501</v>
       </c>
       <c r="E6" t="n">
-        <v>-155809.7964781192</v>
+        <v>-156030.9277920949</v>
       </c>
       <c r="F6" t="n">
-        <v>-21536.29681467779</v>
+        <v>-21571.03474011303</v>
       </c>
       <c r="G6" t="n">
-        <v>167771.9719557525</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="H6" t="n">
-        <v>167771.9719557524</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="I6" t="n">
-        <v>167771.9719557525</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="J6" t="n">
-        <v>118707.0272272077</v>
+        <v>118672.2893017721</v>
       </c>
       <c r="K6" t="n">
-        <v>95180.96349545043</v>
+        <v>95146.2255700151</v>
       </c>
       <c r="L6" t="n">
-        <v>124491.4291564973</v>
+        <v>124456.6912310614</v>
       </c>
       <c r="M6" t="n">
-        <v>85874.56824302195</v>
+        <v>85839.83031758596</v>
       </c>
       <c r="N6" t="n">
-        <v>117932.3978237283</v>
+        <v>117897.6598982928</v>
       </c>
       <c r="O6" t="n">
-        <v>167771.9719557523</v>
+        <v>167737.2340303166</v>
       </c>
       <c r="P6" t="n">
-        <v>167771.9719557522</v>
+        <v>167737.2340303166</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074283002</v>
+        <v>791.2679074282988</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214949</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178642</v>
+        <v>469.5770017178627</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490078</v>
+        <v>969.2208239490086</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26808,28 +26808,28 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,19 +26932,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153955</v>
+        <v>242.7979665153943</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892393</v>
+        <v>142.7969846892403</v>
       </c>
       <c r="E3" t="n">
-        <v>268.17634509741</v>
+        <v>268.1763450974108</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267245</v>
+        <v>165.734263126724</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515443</v>
+        <v>282.0514145515428</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821749</v>
+        <v>171.0078303821762</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489687</v>
+        <v>328.6359918489698</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506406</v>
+        <v>203.48746415064</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515443</v>
+        <v>282.0514145515428</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821749</v>
+        <v>171.0078303821762</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489687</v>
+        <v>328.6359918489695</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506406</v>
+        <v>203.4874641506402</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515443</v>
+        <v>282.0514145515428</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821749</v>
+        <v>171.0078303821762</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489687</v>
+        <v>328.6359918489698</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506406</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>167.1574544543631</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>254.801341795675</v>
+        <v>253.0688077092984</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399023</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897336</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,22 +27509,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>155.0427046208048</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>88.14171394695863</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098441</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,25 +27540,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>5.430339986239602</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>93.35705220546245</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378015</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
         <v>286.2650814934503</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.1840682227172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577484</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>306.8976264094352</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094039</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>11.14168037865335</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>149.1226403460221</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>80.71348838008613</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,10 +27707,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.52250929581456</v>
+        <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.79797317841047</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>129.3171309176603</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5409427785071</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>112.5404054555728</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.1358328502783</v>
       </c>
       <c r="S7" t="n">
-        <v>199.1500311756599</v>
+        <v>199.15003117566</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8489350595716</v>
+        <v>221.8489350595717</v>
       </c>
       <c r="U7" t="n">
-        <v>286.241199726252</v>
+        <v>48.63926340922859</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>392.4623439555848</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>270.7869840939618</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>141.819587176657</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>230.3648275782234</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28561,10 +28561,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28573,10 +28573,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,10 +28615,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28627,10 +28627,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>-3.765876499528531e-12</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-1.672078567559044e-12</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.350276212680659e-12</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -30757,13 +30757,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31042,13 +31042,13 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
         <v>280.4720934528639</v>
@@ -31060,25 +31060,25 @@
         <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
         <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
         <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31124,7 +31124,7 @@
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,16 +31133,16 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
@@ -31151,16 +31151,16 @@
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
         <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31227,19 +31227,19 @@
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274571</v>
+        <v>3.180976512274566</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633196</v>
+        <v>32.57717570633191</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894655</v>
+        <v>122.6345969894653</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586642</v>
+        <v>269.9814052586636</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232468</v>
+        <v>404.6321410232461</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607698</v>
+        <v>501.981950960769</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109327</v>
+        <v>558.5516420109318</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264329</v>
+        <v>567.5895915264319</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325026</v>
+        <v>535.9587563325017</v>
       </c>
       <c r="P5" t="n">
-        <v>457.428398685724</v>
+        <v>457.4283986857233</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398909</v>
+        <v>343.5096773398902</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391677</v>
+        <v>199.8170158391674</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345686</v>
+        <v>72.48650227345674</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248194</v>
+        <v>13.92472468248192</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819656</v>
+        <v>0.2544781209819652</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128797</v>
+        <v>1.701972480128794</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43747105808601</v>
+        <v>16.43747105808598</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5986138991713</v>
+        <v>58.5986138991712</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142737</v>
+        <v>160.7990754142735</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829031</v>
+        <v>274.8312315829027</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437547</v>
+        <v>369.5445071437541</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484236</v>
+        <v>431.2410095484228</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734979</v>
+        <v>442.6546758734971</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138019</v>
+        <v>404.9425488138012</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888051</v>
+        <v>325.0020957888045</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.255294130125</v>
+        <v>217.2552941301246</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6715895995757</v>
+        <v>105.6715895995755</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923443</v>
+        <v>31.61339233923437</v>
       </c>
       <c r="T6" t="n">
-        <v>6.86014346157177</v>
+        <v>6.860143461571758</v>
       </c>
       <c r="U6" t="n">
-        <v>0.111971873692684</v>
+        <v>0.1119718736926838</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.426876554378902</v>
+        <v>1.426876554378899</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893243</v>
+        <v>12.68622972893241</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168553</v>
+        <v>42.91006947168546</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8801723945884</v>
+        <v>100.8801723945882</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087487</v>
+        <v>165.7771124087485</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210233</v>
+        <v>212.137628821023</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014128</v>
+        <v>223.6693857014124</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350916</v>
+        <v>218.3510276350912</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589379</v>
+        <v>201.6825151589376</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496082</v>
+        <v>172.5742334496079</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216733</v>
+        <v>119.4814540216731</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689134</v>
+        <v>64.15755852689122</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131231</v>
+        <v>24.86656686131226</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709852</v>
+        <v>6.096654368709841</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884928</v>
+        <v>0.07782963023884915</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.83313060186914</v>
+        <v>4.833130601869142</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639234</v>
+        <v>49.49729877639236</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203913</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975121</v>
+        <v>614.7923367975123</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544649</v>
+        <v>762.7042574544653</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954552</v>
+        <v>848.6554437954555</v>
       </c>
       <c r="N11" t="n">
-        <v>862.387576118016</v>
+        <v>862.3875761180163</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956796</v>
+        <v>814.32813369568</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620352</v>
+        <v>695.0102219620354</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825965</v>
+        <v>521.9237322825967</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696626</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900931</v>
+        <v>110.1349635900932</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968217</v>
+        <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495311</v>
+        <v>0.3866504481495313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
         <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469203</v>
+        <v>89.03390294469206</v>
       </c>
       <c r="J12" t="n">
-        <v>244.3158348193135</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598377</v>
+        <v>144.9058654583231</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747743</v>
+        <v>561.4806834747745</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821474</v>
+        <v>655.2214742821476</v>
       </c>
       <c r="N12" t="n">
-        <v>282.4162185798895</v>
+        <v>672.5632370340502</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924469</v>
+        <v>615.2639659924471</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383441</v>
+        <v>493.8035753383443</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.0946129047537</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627649</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,43 +31911,43 @@
         <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798448</v>
+        <v>65.19695102798451</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329024</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.318904810054</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806236</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493062</v>
+        <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811702</v>
+        <v>97.48008457811706</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493536</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377476</v>
+        <v>9.26317018837748</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473722</v>
@@ -32081,7 +32081,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32099,7 +32099,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,34 +32309,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
         <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>100.2010091933412</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197787</v>
+        <v>88.93550073197736</v>
       </c>
       <c r="K5" t="n">
-        <v>184.5422899782662</v>
+        <v>184.5422899782656</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907826</v>
+        <v>266.2155359907817</v>
       </c>
       <c r="M5" t="n">
-        <v>328.20540878366</v>
+        <v>328.2054087836591</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298419</v>
+        <v>338.176527929841</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108159</v>
+        <v>305.860544910815</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304545</v>
+        <v>226.1954029304537</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654414</v>
+        <v>121.2039874654407</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>90.3088340847989</v>
+        <v>33.96144874760677</v>
       </c>
       <c r="K6" t="n">
-        <v>401.4550296211227</v>
+        <v>184.7668570618564</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638806</v>
+        <v>230.9901273638799</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1069756264052</v>
+        <v>289.1069756264045</v>
       </c>
       <c r="N6" t="n">
-        <v>311.3129637901645</v>
+        <v>311.3129637901638</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693574</v>
+        <v>262.3463043693567</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744748</v>
+        <v>469.5770017178627</v>
       </c>
       <c r="Q6" t="n">
-        <v>77.27352004410349</v>
+        <v>77.27352004410312</v>
       </c>
       <c r="R6" t="n">
-        <v>5.513755446932549</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915582</v>
+        <v>7.520992277915411</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828659</v>
+        <v>143.5076205828656</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813395</v>
+        <v>239.7276540813391</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632533</v>
+        <v>263.2532626632529</v>
       </c>
       <c r="N7" t="n">
-        <v>262.4832000143201</v>
+        <v>262.4832000143198</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729776</v>
+        <v>226.2676430729773</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145017</v>
+        <v>169.8527927145014</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997894</v>
+        <v>33.31941076997873</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>591.2668520422184</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.160013893705</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525316</v>
+        <v>394.7024857525318</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844776</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681825</v>
+        <v>618.3092105681828</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214251</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739929</v>
+        <v>584.2299222739932</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067656</v>
+        <v>463.7772262067659</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081469</v>
+        <v>299.6180424081472</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553051</v>
+        <v>88.01360235553062</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4782081526468</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854787</v>
+        <v>7.064426483964096</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949001</v>
+        <v>422.9263036949004</v>
       </c>
       <c r="M12" t="n">
-        <v>513.087440360129</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>151.0745064965562</v>
+        <v>541.2215249507169</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480024</v>
+        <v>472.6677215480026</v>
       </c>
       <c r="P12" t="n">
-        <v>359.8291679240139</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187322</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186264</v>
+        <v>59.9167231918627</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388466</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946634</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022141997</v>
+        <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776297</v>
+        <v>95.37638356776306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>25.73094315394598</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37379,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
